--- a/output/0/tRNA-Pro-AGG-1-1.xlsx
+++ b/output/0/tRNA-Pro-AGG-1-1.xlsx
@@ -12,132 +12,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>chr16</t>
   </si>
   <si>
-    <t>3242000</t>
-  </si>
-  <si>
-    <t>3242023</t>
+    <t>3241501</t>
+  </si>
+  <si>
+    <t>3241524</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3241504</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>CTCTACCGACTGAGCTAGCC</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>35% (45)</t>
+  </si>
+  <si>
+    <t>31% (36)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>3241502</t>
+  </si>
+  <si>
+    <t>3241525</t>
+  </si>
+  <si>
+    <t>3241505</t>
+  </si>
+  <si>
+    <t>GCTCTACCGACTGAGCTAGC</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>50% (50)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>3241506</t>
+  </si>
+  <si>
+    <t>3241529</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>3242020</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>TAGGGGTATGATTCTCGCTT</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+    <t>3241526</t>
+  </si>
+  <si>
+    <t>CTAGCTCAGTCGGTAGAGCA</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>46% (43)</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>3241507</t>
+  </si>
+  <si>
+    <t>3241530</t>
+  </si>
+  <si>
+    <t>3241527</t>
+  </si>
+  <si>
+    <t>TAGCTCAGTCGGTAGAGCAT</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>77% (59)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>3241552</t>
+  </si>
+  <si>
+    <t>3241549</t>
+  </si>
+  <si>
+    <t>GACTCTTAATCTCAGGGTCG</t>
+  </si>
+  <si>
+    <t>22% (31)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>3241553</t>
+  </si>
+  <si>
+    <t>3241550</t>
+  </si>
+  <si>
+    <t>ACTCTTAATCTCAGGGTCGT</t>
+  </si>
+  <si>
+    <t>69% (56)</t>
+  </si>
+  <si>
+    <t>41% (41)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3241547</t>
+  </si>
+  <si>
+    <t>3241570</t>
+  </si>
+  <si>
+    <t>3241567</t>
+  </si>
+  <si>
+    <t>CGTGGGTTCGAGCCCCACGT</t>
+  </si>
+  <si>
+    <t>63% (54)</t>
+  </si>
+  <si>
+    <t>61% (50)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>3241548</t>
+  </si>
+  <si>
+    <t>3241571</t>
+  </si>
+  <si>
+    <t>3241568</t>
+  </si>
+  <si>
+    <t>GTGGGTTCGAGCCCCACGTT</t>
   </si>
   <si>
     <t>43% (48)</t>
   </si>
   <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>3242029</t>
-  </si>
-  <si>
-    <t>3242052</t>
-  </si>
-  <si>
-    <t>3242049</t>
-  </si>
-  <si>
-    <t>GAGGTCCCGGGTTCAAATCC</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>3242034</t>
-  </si>
-  <si>
-    <t>3242057</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>3242037</t>
-  </si>
-  <si>
-    <t>CTCGTCCGGGATTTGAACCC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>3242035</t>
-  </si>
-  <si>
-    <t>3242058</t>
-  </si>
-  <si>
-    <t>3242038</t>
-  </si>
-  <si>
-    <t>GCTCGTCCGGGATTTGAACC</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>77</t>
+    <t>98% (86)</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -182,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -205,10 +289,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -264,10 +348,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -323,10 +407,10 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -353,10 +437,10 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -370,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -382,10 +466,10 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -397,30 +481,266 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
       </c>
       <c r="S4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
         <v>3</v>
       </c>
     </row>
